--- a/d2020_07_01/test_data/yunwen.xlsx
+++ b/d2020_07_01/test_data/yunwen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QCT-GIT\d2020_07_01\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EEDAF0-F20B-407C-80B0-8EB19C7C41BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6FA227-5E6C-477E-861B-2B8C5484AE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -323,12 +323,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "access_token":"#access_token#",
  "startTime":"2020-07-01 00:00:00",
  "endTime":"2020-07-30 23:59:59",
  "pageNo":1,
- "pageSize":100
+ "pageSize":“发发发”
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "codeDesc": "开始时间不能大于结束时间"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,16 +692,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="41.875" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="8" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -836,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,6 +943,9 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1036,7 +1053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1050,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>

--- a/d2020_07_01/test_data/yunwen.xlsx
+++ b/d2020_07_01/test_data/yunwen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QCT-GIT\d2020_07_01\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6FA227-5E6C-477E-861B-2B8C5484AE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D89CA68-5D1B-43BB-B5E2-29B487528D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,7 +873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -893,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -913,7 +913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -953,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -973,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -993,7 +993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
